--- a/biology/Zoologie/Beethoven_sauve_Noël/Beethoven_sauve_Noël.xlsx
+++ b/biology/Zoologie/Beethoven_sauve_Noël/Beethoven_sauve_Noël.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Beethoven_sauve_No%C3%ABl</t>
+          <t>Beethoven_sauve_Noël</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Beethoven sauve Noël en France ou L'Aventure de Noël de Beethoven au Québec (Beethoven's Christmas Adventure), est un film de Noël américain, réalisé par John Putch et sorti en novembre 2011 directement en vidéo. C'est la septième aventure du Saint-Bernard Beethoven après Beethoven (1992), Beethoven 2 (1993), Beethoven 3 (2000), Beethoven 4 (2001), Beethoven et le Trésor perdu (2003) et Beethoven : Une star est née ! (2008) .
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Beethoven_sauve_No%C3%ABl</t>
+          <t>Beethoven_sauve_Noël</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette année, le Père Noël décide qu'Henry ne travaillera pas dans l'atelier de jouets, mais en tant qu'elfe d'étable. Déçu de ne pas pouvoir aider les autres elfes à fabriquer les jouets, il décide d'en bricoler un lui-même. Malheureusement pour lui, ce jouet devient vite incontrôlable et il s'envole avec les rennes du Père Noël. Ensuite, le sac contenant les jouets tombe du traîneau et Henry saute afin de les rattraper, mais il atterrit dans un arbre. Il va notamment faire appel à Beethoven pour l'aider à retrouver les jouets afin que les enfants ne voient pas leur fête gâchée.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Beethoven_sauve_No%C3%ABl</t>
+          <t>Beethoven_sauve_Noël</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -550,7 +566,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Beethoven_sauve_No%C3%ABl</t>
+          <t>Beethoven_sauve_Noël</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -568,7 +584,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Curtis Armstrong (VF : Michel Mella) : Kenny
 Alan Castanage : Dad
@@ -597,7 +615,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Beethoven_sauve_No%C3%ABl</t>
+          <t>Beethoven_sauve_Noël</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -615,7 +633,9 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">John O'Hurley et Kyle Massey ont tous les deux participé à Dancing with the Stars sur ABC.
 O'Hurley est arrivé en finale le 6 juin 2005, lors de la première saison, et s'est incliné face à Kelly Monaco.
